--- a/modified_tables/table_23.xlsx
+++ b/modified_tables/table_23.xlsx
@@ -11,6 +11,152 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>5.442</t>
+  </si>
+  <si>
+    <t>5.474</t>
+  </si>
+  <si>
+    <t>5.542</t>
+  </si>
+  <si>
+    <t>Of which: male</t>
+  </si>
+  <si>
+    <t>3,145</t>
+  </si>
+  <si>
+    <t>3,157</t>
+  </si>
+  <si>
+    <t>3,214</t>
+  </si>
+  <si>
+    <t>Of which: female</t>
+  </si>
+  <si>
+    <t>2,297</t>
+  </si>
+  <si>
+    <t>2,317</t>
+  </si>
+  <si>
+    <t>2,328</t>
+  </si>
+  <si>
+    <t>By age and gender</t>
+  </si>
+  <si>
+    <t>Under 30</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>30 to 49</t>
+  </si>
+  <si>
+    <t>2,685</t>
+  </si>
+  <si>
+    <t>2,825</t>
+  </si>
+  <si>
+    <t>2,926</t>
+  </si>
+  <si>
+    <t>1,493</t>
+  </si>
+  <si>
+    <t>1,594</t>
+  </si>
+  <si>
+    <t>1,657</t>
+  </si>
+  <si>
+    <t>1,192</t>
+  </si>
+  <si>
+    <t>1,231</t>
+  </si>
+  <si>
+    <t>1,269</t>
+  </si>
+  <si>
+    <t>50+</t>
+  </si>
+  <si>
+    <t>2,272</t>
+  </si>
+  <si>
+    <t>2,178</t>
+  </si>
+  <si>
+    <t>2,133</t>
+  </si>
+  <si>
+    <t>1,403</t>
+  </si>
+  <si>
+    <t>1,334</t>
+  </si>
+  <si>
+    <t>1,324</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>844</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,42 +512,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="B2">
-        <v>15.4</v>
-      </c>
-      <c r="C2">
-        <v>20.4</v>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
